--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2885.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2885.xlsx
@@ -354,7 +354,7 @@
         <v>1.920291262822393</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.927934334072082</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2885.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2885.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205905150984601</v>
+        <v>2.12153434753418</v>
       </c>
       <c r="B1">
-        <v>1.920291262822393</v>
+        <v>2.323867797851562</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.396320581436157</v>
       </c>
       <c r="D1">
-        <v>1.927934334072082</v>
+        <v>3.003204107284546</v>
       </c>
       <c r="E1">
-        <v>1.20286986148163</v>
+        <v>2.674479007720947</v>
       </c>
     </row>
   </sheetData>
